--- a/website_table.xlsx
+++ b/website_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,16 +453,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Value  (Rs Cr.)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -470,22 +478,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QTY</t>
+          <t>Adani Ports</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRICE</t>
+          <t>904.20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRICE</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>QTY</t>
+          <t>1,380.40</t>
         </is>
       </c>
     </row>
@@ -495,22 +503,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2691.00</t>
+          <t>755.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2695.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>954.20</t>
         </is>
       </c>
     </row>
@@ -520,22 +528,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Reliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2690.75</t>
+          <t>2740.95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2696.05</t>
+          <t>45.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>946.61</t>
         </is>
       </c>
     </row>
@@ -545,22 +553,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>HDFC Bank</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2690.70</t>
+          <t>1369.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2696.65</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>937.55</t>
         </is>
       </c>
     </row>
@@ -570,72 +578,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Axis Bank</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2690.65</t>
+          <t>780.40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2696.90</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2690.55</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2696.95</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>537.38</t>
         </is>
       </c>
     </row>

--- a/website_table.xlsx
+++ b/website_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,39 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -453,24 +486,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Value  (Rs Cr.)</t>
-        </is>
-      </c>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -478,24 +510,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adani Ports</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>904.20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1,380.40</t>
-        </is>
-      </c>
+          <t>['Index', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -503,22 +534,77 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ICICI Bank</t>
+          <t>['Nifty 50', '17082.50', '-118.30', '-0.69']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>755.85</t>
+          <t>['BSE Sensex', '56935.48', '-421.13', '-0.73']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>['Nifty Bank', '36117.10', '-287.70', '-0.79']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>954.20</t>
+          <t>['Nifty IT', '31583.70', '-256.30', '-0.80']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['BSE SmallCap', '28808.49', '-110.34', '-0.38']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['BSE MidCap', '24558.39', '-71.86', '-0.29']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Nifty Auto', '11130.30', '-91.50', '-0.82']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['BSE Cap Goods', '27300.86', '-242.01', '-0.88']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['BSE Cons Durable', '42951.19', '-223.09', '-0.52']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['BSE FMCG', '13946.77', '-41.30', '-0.30']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['BSE Healthcare', '24384.41', '-70.46', '-0.29']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['BSE Metals', '21547.92', '-104.59', '-0.48']</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['BSE Oil Gas', '19967.69', '-84.01', '-0.42']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['BSE Teck', '14389.19', '-115.22', '-0.79']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>['Nifty PSE', '4320.65', '-10.20', '-0.24']</t>
         </is>
       </c>
     </row>
@@ -528,24 +614,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reliance</t>
+          <t>['Indices', 'Price', 'Change', '% Chg']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2740.95</t>
+          <t>['Straits Times  Apr 27', '3320.06', '-1.99', '-0.06']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.95</t>
+          <t>['Hang Seng  Apr 27', '19967.84', '33.13', '0.17']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>946.61</t>
-        </is>
-      </c>
+          <t>['Nikkei 225  Apr 27', '26345.19', '-354.92', '-1.33']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -553,24 +650,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HDFC Bank</t>
+          <t>['Company', 'Price', 'Change', 'Value  (Rs Cr.)']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1369.00</t>
+          <t>['Bajaj Finance', '6981.20', '-259.35', '314.51']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>['Adani Ports', '918.90', '9.40', '214.04']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>937.55</t>
-        </is>
-      </c>
+          <t>['Reliance', '2774.85', '-0.80', '151.07']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['ICICI Bank', '747.50', '-6.25', '95.06']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Infosys', '1561.30', '-19.70', '92.61']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -578,24 +694,883 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Axis Bank</t>
+          <t>['Company', 'Price', 'Change', 'Value  (Rs Cr.)']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>780.40</t>
+          <t>['Bajaj Finance', '6980.85', '-259.85', '19.51']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>['Reliance', '2775.05', '-0.65', '5.63']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>537.38</t>
-        </is>
-      </c>
+          <t>['SBI', '501.60', '-4.40', '4.71']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['HDFC Bank', '1360.55', '-11.80', '2.44']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Tata Steel', '1222.80', '-10.75', '1.84']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Gain']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['HDFC Life', '556.65', '6.80', '1.24']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Adani Ports', '918.70', '9.20', '1.01']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['ONGC', '167.90', '0.95', '0.57']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Apollo Hospital', '4,640.75', '16.70', '0.36']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['NTPC', '157.30', '0.30', '0.19']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Gain']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Sun Pharma', '921.30', '3.05', '0.33']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Reliance', '2,777.20', '1.50', '0.05']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Loss']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Bajaj Finance', '6,983.60', '-256.95', '-3.55']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Bajaj Finserv', '15,186.00', '-248.35', '-1.61']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['Larsen', '1,675.95', '-24.00', '-1.41']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['UltraTechCement', '6,564.90', '-95.30', '-1.43']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Grasim', '1,693.30', '-24.70', '-1.44']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Loss']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Bajaj Finance', '6,976.00', '-264.70', '-3.66']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Bajaj Finserv', '15,178.80', '-247.55', '-1.60']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['UltraTechCement', '6,560.15', '-98.95', '-1.49']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Larsen', '1,675.80', '-23.70', '-1.39']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['M M', '928.30', '-12.10', '-1.29']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Commodity', 'Price', '', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Gold Jun 03', '51,527.00', '', '-57.00', '-0.11']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Silver May 05', '64,950.00', '', '-18.00', '-0.03']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['Crudeoil May 19', '7,832.00', '', '-37.00', '-0.47']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Naturalgas May 25', '537.50', '', '-7.00', '-1.29']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['Commodity', 'Price', '', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Sybeanidr May 20', '0.00', '', '0.00', '']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Cocudakl May 20', '2,863.00', '', '18.00', '0.63']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['Cocudakl May 20', '3,097.00', '', '0.00', '0.00']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Tmcfgrnzm May 20', '9,156.00', '', '0.00', '0.00']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['Currency', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['USDINR May 27', '76.9650', '0.12', '0.15']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['JPYINR Apr 27', '60.0625', '0.06', '0.10']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['EURINR May 27', '82.0550', '-0.27', '-0.32']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['GBPINR Apr 27', '96.5025', '-0.98', '-1.01']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['Name', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Indiabulls Hsg', '159.90', '-2.10', '-1.3']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Sbi', '501.25', '-4.25', '-0.84']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['Ntpc', '157.35', '0.35', '0.22']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Nhpc', '33.60', '-0.20', '-0.59']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['Equity', 'Type', 'Issue Price', 'Issue Size', 'Lot Size', 'Issue Open', 'Issue Close']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Campus View Profile', 'IPO', '278', '1400.14', '51', '26-04', '28-04']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Rainbow Childre View Profile', 'IPO', '516', '1595.59', '27', '27-04', '29-04']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['Fone4 Communica View Profile', 'SME IPO', '10', '6.8', '10000', '25-04', '27-04']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Le Merite View Profile', 'SME IPO', '75', '48', '1600', '25-04', '28-04']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['Equity', 'Date of filing with Sebi']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Prasol Chemicals Limited DRHP \xa0 ( Prasol_Chemicals_Limited_DRHP )', '19-Apr']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Kaynes Technology India Limited DRHP \xa0 ( Kaynes_Technology_India_Limited_DRHP )', '18-Apr']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Senco_Gold_Limited_DRHP \xa0 ( Senco_Gold_Limited_DRHP )', '18-Apr']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Global Longlife Hospital And Research Limited DRHP \xa0 ( Global_Longlife_Hospital_And_Research_Limited_DRHP )', '13-Apr']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['Equity', 'Issue Price', 'Listing Date', 'Listing Open', 'Listing Close', 'Listing Gains %', 'CMP', 'Current Gains %']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Eighty Jeweller', '41', '13-04', '42.00', '44.10', '7.56', '50.00', '21.95']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Hariom Pipe', '153', '13-04', '214.00', '224.70', '46.86', '194.05', '26.83']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['Dhyaani Tile', '51', '12-04', '57.50', '54.80', '7.45', '51.00', '0.00']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Veranda Learn', '137', '11-04', '171.00', '160.40', '17.08', '229.25', '67.34']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['Scheme', 'Fund Class', 'Info', 'Order form', 'Open Date', 'Close Date']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['No NFO details available.']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['Equity', 'Type', 'Issue Price', 'Issue Size', 'Lot Size', 'Subscription', 'Issue Open', 'Issue Close']</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Shashwat Furnis View Profile', 'SME IPO', '45', '2.51', '0', '', '20-04', '25-04']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Global Longlife View Profile', 'SME IPO', '140', '49', '0', '', '21-04', '25-04']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Stock', 'Recommendation']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['EID Parry', '545.55', '', "Hot Stocks | Double-digit returns in Suven Pharma, EID Parry, Prakash Pipes possible in short term, here's why"]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['JSW Energy', '344.45', '', 'Trade Spotlight | What should you do with JSW Energy, Cholamandalam Investment, Apollo Tyres, NLC India, Adani Ports today?']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['Bhansali Eng', '129.20', '', 'Bhansali Engineering: Delay in brownfield expansion caps volume growth; valuation fair']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['Action Const', '241.35', '', "Hot Stocks | Bandhan Bank, Action Construction Equipment, Ceat can give up to 15% return, here's why"]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['AB Capital', '116.15', '', 'Trade Spotlight | What should investors do with Aditya Birla Capital, Elgi Equipments, Adani Power, Ambuja Cements on Tuesday?']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['Company Name', 'Agenda']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Bajaj Auto', 'Audited Results Dividend']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Kohinoor Foods', 'Rights issue']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['Hatsun Agro', 'Audited Results']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['Syngene Intl', 'Audited Results Final Dividend']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Shree Digvijay', 'Audited Results Final Dividend']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['Company Name', 'Agenda']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Schaeffler Ind', 'AGM']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Le Lavoir', 'EGM']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['Edelweiss', 'POM']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Anand Projects', 'EGM']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['AJR Infra Tol', 'EGM']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['Company', 'Ratio', 'Ex-Bonus']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['ShreeGanesh Bio', '1:1', '27-04-2022']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Pro Fin Capital', '2:1', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['Vikram Thermo', '4:1', '12-05-2022']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['Company', 'Old FV', 'New FV', 'Ex-Splits']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Pro Fin Capital', '10', '1', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['Company', 'Ratio', 'FV', 'Ex-Rights']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Rights details not present at the moment.']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['Company', '%', 'Ex-Div']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['ABB India', '260.00', '27-04-2022']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Mold-Tek Pack', '120.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['HCL Tech', '900.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['KSB Pumps', '125.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Stovec Ind', '570.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['Company Name', 'Last Price', 'Change', 'Market Cap', 'Net Sales', 'Net Profit', 'Assets']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['Reliance', '2774.75', '-0.90', '1,876,867.72', '245667.00', '31944.00', '595,373.00']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['TCS', '3527.15', '-19.15', '1,290,936.90', '160341.00', '38187.00', '63,500.00']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['HDFC Bank', '1361.30', '-10.75', '755,046.31', '120858.23', '15413.68', '1,508,872.09']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['Infosys', '1561.30', '-19.70', '656,798.10', '103940.00', '21235.00', '46,063.00']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['ICICI Bank', '747.50', '-6.25', '519,507.71', '79118.27', '-21.72', '965,122.84']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['HUL', '2151.00', '2.65', '505,397.08', '45996.00', '7954.00', '43,835.00']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/website_table.xlsx
+++ b/website_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['Index', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['Nifty 50', '17245.00', '206.60', '1.21']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['BSE Sensex', '57521.06', '701.67', '1.23']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Nifty Bank', '36422.20', '393.40', '1.09']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Nifty IT', '31914.30', '320.00', '1.01']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['BSE SmallCap', '28778.04', '35.77', '0.12']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['BSE MidCap', '24616.87', '203.07', '0.83']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Nifty Auto', '11192.00', '33.15', '0.30']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['BSE Cap Goods', '27741.59', '405.08', '1.48']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['BSE Cons Durable', '43090.66', '420.10', '0.98']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['BSE FMCG', '14176.23', '289.41', '2.08']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['BSE Healthcare', '24390.23', '113.21', '0.47']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['BSE Metals', '21779.20', '122.59', '0.57']</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['BSE Oil Gas', '20014.78', '211.62', '1.07']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['BSE Teck', '14501.99', '111.46', '0.77']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>['Nifty PSE', '4335.50', '57.30', '1.34']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['Indices', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['DAX  Apr 28', '13997.87', '203.93', '1.48']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['CAC  Apr 28', '6509.85', '64.59', '1.00']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['FTSE  Apr 28', '7493.84', '68.23', '0.92']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', 'Value  (Rs Cr.)']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Reliance', '2819.85', '41.50', '3,333.31']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Bajaj Finance', '6727.65', '13.55', '1,681.30']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Infosys', '1582.60', '29.80', '1,463.14']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['HDFC Bank', '1371.35', '-1.20', '1,424.40']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['ICICI Bank', '747.15', '10.45', '1,393.40']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', 'Value  (Rs Cr.)']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Bajaj Finance', '6725.05', '8.40', '88.65']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Reliance', '2819.20', '41.30', '74.61']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['Axis Bank', '779.95', '13.85', '58.82']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Infosys', '1583.30', '30.10', '51.61']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Wipro', '522.55', '3.30', '39.24']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Gain']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['HUL', '2,241.85', '96.75', '4.51']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['HDFC Life', '571.40', '23.75', '4.34']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['SBI Life Insura', '1,116.85', '42.65', '3.97']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['UPL', '824.30', '25.90', '3.24']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Asian Paints', '3,247.70', '99.35', '3.16']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Gain']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['HUL', '2,241.80', '97.55', '4.55']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Asian Paints', '3,248.30', '100.00', '3.18']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['Power Grid Corp', '235.65', '6.40', '2.79']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['NTPC', '159.70', '4.15', '2.67']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Larsen', '1,718.15', '41.40', '2.47']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Loss']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Bajaj Auto', '3,834.40', '-71.25', '-1.82']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Hindalco', '488.60', '-3.70', '-0.75']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['Bharti Airtel', '747.35', '-5.15', '-0.68']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['M M', '922.90', '-3.95', '-0.43']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['HCL Tech', '1,092.50', '-3.10', '-0.28']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Change', '%Loss']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Bharti Airtel', '747.25', '-6.30', '-0.84']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['M M', '921.70', '-5.00', '-0.54']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['HCL Tech', '1,092.65', '-3.35', '-0.31']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['HDFC Bank', '1,371.05', '-1.60', '-0.12']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Commodity', 'Price', '', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Gold Jun 03', '51,158.00', '', '-41.00', '-0.08']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Silver May 05', '63,900.00', '', '-780.00', '-1.21']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['Crudeoil May 19', '7,833.00', '', '46.00', '0.59']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Naturalgas May 25', '549.00', '', '-17.10', '-3.02']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['Commodity', 'Price', '', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Sybeanidr May 20', '0.00', '', '0.00', '']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Cocudakl May 20', '2,780.00', '', '-107.00', '-3.71']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['Cocudakl May 20', '3,097.00', '', '0.00', '0.00']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Tmcfgrnzm May 20', '9,156.00', '', '0.00', '0.00']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['Currency', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['USDINR May 27', '76.8450', '0.01', '0.01']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['Name', 'Price', 'Change', '% Chg']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Ntpc', '159.70', '4.05', '2.6']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Sbi', '507.50', '10.25', '2.06']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['Nhpc', '33.90', '1.00', '3.04']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Indiabulls Hsg', '156.90', '0.65', '0.42']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['Equity', 'Type', 'Issue Price', 'Issue Size', 'Lot Size', 'Issue Open', 'Issue Close']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Campus View Profile', 'IPO', '278', '1400.14', '51', '26-04', '28-04']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Rainbow Childre View Profile', 'IPO', '516', '1595.59', '27', '27-04', '29-04']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['Life Insurance View Profile', 'IPO', '902', '21000', '15', '04-05', '09-05']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Le Merite View Profile', 'SME IPO', '75', '48', '1600', '25-04', '28-04']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['Equity', 'Date of filing with Sebi']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Prasol Chemicals Limited DRHP \xa0 ( Prasol_Chemicals_Limited_DRHP )', '19-Apr']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Kaynes Technology India Limited DRHP \xa0 ( Kaynes_Technology_India_Limited_DRHP )', '18-Apr']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Senco_Gold_Limited_DRHP \xa0 ( Senco_Gold_Limited_DRHP )', '18-Apr']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['Global Longlife Hospital And Research Limited DRHP \xa0 ( Global_Longlife_Hospital_And_Research_Limited_DRHP )', '13-Apr']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['Equity', 'Issue Price', 'Listing Date', 'Listing Open', 'Listing Close', 'Listing Gains %', 'CMP', 'Current Gains %']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Eighty Jeweller', '41', '13-04', '42.00', '44.10', '7.56', '48.35', '17.93']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Hariom Pipe', '153', '13-04', '214.00', '224.70', '46.86', '221.80', '44.97']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['Dhyaani Tile', '51', '12-04', '57.50', '54.80', '7.45', '51.90', '1.76']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Veranda Learn', '137', '11-04', '171.00', '160.40', '17.08', '252.15', '84.05']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['Scheme', 'Fund Class', 'Info', 'Order form', 'Open Date', 'Close Date']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['No NFO details available.']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['Equity', 'Type', 'Issue Price', 'Issue Size', 'Lot Size', 'Subscription', 'Issue Open', 'Issue Close']</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Shashwat Furnis View Profile', 'SME IPO', '45', '2.51', '0', '', '20-04', '25-04']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Global Longlife View Profile', 'SME IPO', '140', '49', '0', '', '21-04', '25-04']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['Fone4 Communica View Profile', 'SME IPO', '10', '6.8', '0', '', '25-04', '27-04']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Nanavati View Profile', 'SME IPO', '50', '2.18', '0', '', '25-04', '27-04']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['Company', 'Price', 'Stock', 'Recommendation']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Bharti Airtel', '747.25', '', 'BofA Securities downgrades Bharti Airtel as high inflation may distort earnings']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['TATA Cons. Prod', '811.55', '', 'Hot Stocks | Here is why you should bet on Power Grid, Tata Consumer Products']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['Balkrishna Ind', '2141.95', '', 'Trade Spotlight | What should investors do with Hero MotoCorp, IIFL Finance, Schaeffler, Balkrishna Industries, Jai Corp on Thursday?']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['EID Parry', '528.35', '', "Hot Stocks | Double-digit returns in Suven Pharma, EID Parry, Prakash Pipes possible in short term, here's why"]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['JSW Energy', '329.25', '', 'Trade Spotlight | What should you do with JSW Energy, Cholamandalam Investment, Apollo Tyres, NLC India, Adani Ports today?']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['Company Name', 'Agenda']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Hubtown', 'Rights Preferential issue of shares']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Ashnisha Indust', 'Stock Split']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['Bajaj Holdings', 'Audited Results Final Dividend']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['Bajaj Finserv', 'Audited Results Dividend']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['MphasiS', 'Audited Results Dividend']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['Company Name', 'Agenda']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Anand Projects', 'EGM']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Diksat Transwor', 'EGM']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['AJR Infra Tol', 'EGM']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Edelweiss', 'POM']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Automotive Axle', 'POM']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['Company', 'Ratio', 'Ex-Bonus']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['Pro Fin Capital', '2:1', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Vikram Thermo', '4:1', '12-05-2022']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['Company', 'Old FV', 'New FV', 'Ex-Splits']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Pro Fin Capital', '10', '1', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['BLACK BOX', '10', '2', '13-05-2022']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['Company', 'Ratio', 'FV', 'Ex-Rights']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Rights details not present at the moment.']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['Company', '%', 'Ex-Div']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['Mold-Tek Pack', '120.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['HCL Tech', '900.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['KSB Pumps', '125.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['Stovec Ind', '570.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Vesuvius India', '80.00', '28-04-2022']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['Company Name', 'Last Price', 'Change', 'Market Cap', 'Net Sales', 'Net Profit', 'Assets']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['Reliance', '2819.85', '41.50', '1,907,373.79', '245667.00', '31944.00', '595,373.00']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['TCS', '3584.30', '23.10', '1,311,853.80', '160341.00', '38187.00', '63,500.00']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['HDFC Bank', '1371.35', '-1.20', '760,620.55', '120858.23', '15413.68', '1,508,872.09']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['Infosys', '1582.60', '29.80', '665,758.46', '103940.00', '21235.00', '46,063.00']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['HUL', '2241.85', '96.75', '526,743.12', '45996.00', '7954.00', '43,835.00']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['ICICI Bank', '747.15', '10.45', '519,264.46', '79118.27', '-21.72', '965,122.84']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/website_table.xlsx
+++ b/website_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/website_table.xlsx
+++ b/website_table.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,446 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['Dates', '3 October - 15 December 2016']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Lectures', 'Mondays and Thursdays 11:00-13:00 (note any exceptions below)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Tutorials', 'Wednesdays 9:00-11:00']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Lecturer', 'Maneesh Sahani']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['TAs', '(CS) James Townsend, Harshil Shah, Stephen Pasteris; (Gatsby) Alexander Antrobus, Kevin Li, Sanjeevan Ahilan']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Location', 'Ground Floor Seminar Room, 25 Howland Street, London W1T 4JG']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['About the course', 'This course (offered as two successive modules to MSc students) provides an in-depth introduction to statistical\r\n              modelling, unsupervised, and some supervised learning techniques. It presents probabilistic approaches to modelling\r\n              and their relation to coding theory and Bayesian statistics. A variety of latent variable models will be covered\r\n              including mixture models (used for clustering), dimensionality reduction methods, time series models such as hidden\r\n              Markov models which are used in speech recognition and bioinformatics, Gaussian process models, independent\r\n              components analysis, hierarchical models, and nonlinear models. The course will present the foundations of\r\n              probabilistic graphical models (e.g. Bayesian networks and Markov networks) as an overarching framework for\r\n              unsupervised modelling. We will cover Markov chain Monte Carlo sampling methods and variational approximations for\r\n              inference. Time permitting, students will also learn about other topics in probabilistic (or Bayesian) machine\r\n              learning.  The complete course forms a component of the Gatsby PhD programme, and is mandatory for Gatsby students. The two\r\n              component modules are also available to students on\r\n              the UCL MSc in Machine Learning and UCL MSc in Computational Statistics and Machine\r\n\t\tLearning . The first part (GI18: Probabilistic and Unsupervised Learning) may be used to fill a core requirement\r\n              in each Masters programme. The second part (GI16: Approximate Inference and Learning in Probabilistic Models) is an\r\n              optional module, but is only available to students who have completed GI18.']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Mailing list', 'If you plan to attend the lectures, please sign up to join the email list here .']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['General attendance', 'UCL Students, postdocs and faculty from outside the unit and these programmes are\r\n\t      welcome to attend the lectures as long as space is available.  If you are not a student on either MSc\r\n\t      programme above, please do not register for the course without consulting the instructor.']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Prerequisites', 'A good background in statistics, calculus, linear algebra, and computer science. You should thoroughly review the\r\n              maths in the following cribsheet\r\n\t\t[pdf]  [ps] before the start of\r\n              the course. This quiz may help you\r\n              check where you stand. You must either know Matlab or Octave , be taking a class on Matlab/Octave, or be willing to learn it on\r\n              your own.']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['Text', 'There is no required textbook. However, the following are excellent sources for many of the topics covered\r\n              here.  David J.C. MacKay (2003) Information Theory, Inference, and Learning Algorithms, Cambridge University\r\n              Press.  Christopher M. Bishop (2006) Pattern Recognition and Machine Learning, Springer-Verlag.  David Barber (2012) Bayesian Reasoning and Machine Learning, Cambridge University Press.  Kevin Patrick Murphy (2012) Machine Learning: a Probabilistic Perspective, MIT Press.  Daphne Koller and Nir Friedman (2009) Probabilistic Graphical Models, MIT Press. (This contains a more\r\n              extensive treatment of graphical models, good for reference)  Some of our work will depend numerical computation.  A very useful reference in this area is:  Gene H. Golub and Charles F. Van Loan (2013) Matrix Computations, 4th ed, Johns Hopkins\r\n\t  Univ. Press']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>['Reading material', 'Specific recommendations for additional reading can be\r\n              found here .  New material may be assembled as course\r\n              progresses.']</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['Lecture schedule and slides (provisional)', 'Lecture slides and assignments will be posted here as the course progresses. Note that the content and\r\n            sequence of lectures may vary slightly from those of previous years. Some lectures (boldface dates) will be moved to\r\n            the Wednesday morning tutorial slot .       GI18']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['3/10:', 'Introduction to Probabilistic Learning / screen version', '6/10:', 'Intro contd.']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>['10/10:', 'Latent Variables / screen version', '13/10:', 'contd.']</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>['17/10:', 'Expectation Maximisation / screen version', '20/10:', 'Latent chain models / screen version']</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>['24/10:', 'Latent chain models contd.', '27/10:', 'Graphical models / screen version']</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>['31/10:', 'contd', '3/11:', 'Model selection and GPs / screen version']</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>['break']</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>['GI16']</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>['21/11:', 'Intractable models / screen version', '24/11:', 'contd.']</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>['28/11:', 'Variational approximations / screen version', '1/12:', 'Expectation Propagation / screen version']</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>['5/12:', 'Belief Propagation / screen version', '8/12:', 'Convexity-based Methods / screen version']</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>['12/12:', 'Sampling / screen version', '15/12:', 'contd.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Assignments', '50% of the total mark (for each module) is based on coursework assignments (the other 50%\r\n\t    being based on the final written examination). All assignments (coursework) are to be handed in to the Gatsby Unit, not to the CS department. Please hand in all\r\n              assignments at the beginning of lecture on the due date to the lecturer or to the TAs. Late assignments will be\r\n              penalised.  Late Assignment Policy: we will be using the official\r\n  \t       UCL-wide late policy . For the BONUS questions only, this will be interpreted to mean a penalty that is the lesser of:  10 marks up to 2 days late 50% of the maximum mark on the late work up to 5 days late 100% of the marks earned (this to stop you going negative!) This policy applies only if you have handed in credible attempts to all the required\r\n\t      questions on time .    Assignment 0 - maths quiz', 'to be discussed in tutorial 5 Oct 2016']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Assignment 1 [ binarydigits.txt , bindigit.m ]', 'due 17 Oct 2016']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Assignment 2 [ geyser.txt  ssm_spins.txt  ssm_spins_test.txt  ssm_kalman.m ]', 'due 31 Oct 2016']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Assignment 3 [ co2.txt ]', 'due 21 Nov 2016']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Assignments 4 and 5 [ images.jpg , genimages.m , Mstep.m ]', 'due 12 Dec 2016']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Assignment 6 [ message.txt , symbols.txt , asst6code.tgz ]', 'due 9 Jan 2017']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['To attend', 'Please see the note above']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['GI18']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['3/10:', 'Introduction to Probabilistic Learning / screen version', '6/10:', 'Intro contd.']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['10/10:', 'Latent Variables / screen version', '13/10:', 'contd.']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['17/10:', 'Expectation Maximisation / screen version', '20/10:', 'Latent chain models / screen version']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['24/10:', 'Latent chain models contd.', '27/10:', 'Graphical models / screen version']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['31/10:', 'contd', '3/11:', 'Model selection and GPs / screen version']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['break']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['GI16']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['21/11:', 'Intractable models / screen version', '24/11:', 'contd.']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['28/11:', 'Variational approximations / screen version', '1/12:', 'Expectation Propagation / screen version']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['5/12:', 'Belief Propagation / screen version', '8/12:', 'Convexity-based Methods / screen version']</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['12/12:', 'Sampling / screen version', '15/12:', 'contd.']</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['Assignment 0 - maths quiz', 'to be discussed in tutorial 5 Oct 2016']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Assignment 1 [ binarydigits.txt , bindigit.m ]', 'due 17 Oct 2016']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Assignment 2 [ geyser.txt  ssm_spins.txt  ssm_spins_test.txt  ssm_kalman.m ]', 'due 31 Oct 2016']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Assignment 3 [ co2.txt ]', 'due 21 Nov 2016']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Assignments 4 and 5 [ images.jpg , genimages.m , Mstep.m ]', 'due 12 Dec 2016']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Assignment 6 [ message.txt , symbols.txt , asst6code.tgz ]', 'due 9 Jan 2017']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>